--- a/EarlyRetirementsUSA/date number.xlsx
+++ b/EarlyRetirementsUSA/date number.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\EarlyRetirementsUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E47E4E-303F-46B2-8AE0-B41764E9B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5748A54-A5F9-42F9-B359-E37F4800F634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -816,10 +816,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="R131" sqref="R131"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2040,6 +2040,38 @@
         <v>744</v>
       </c>
     </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" s="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" s="1">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
